--- a/data/trans_camb/P2C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.1153167036102428</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>31.37251519921842</v>
+        <v>31.37251519921843</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1248300260695704</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5838295135024388</v>
+        <v>-0.5889727877988484</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5646361476654361</v>
+        <v>-0.6254263371465798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23.62937494559916</v>
+        <v>23.42761437113918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6884074311397745</v>
+        <v>-0.7740109531349633</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9209178032273262</v>
+        <v>-0.9467372755105676</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>27.62824316126463</v>
+        <v>27.4357035537643</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4879874715383823</v>
+        <v>-0.4630290152745372</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6071195273283975</v>
+        <v>-0.5687874016194283</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>27.52196707480423</v>
+        <v>27.2409958568569</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8695572498917632</v>
+        <v>0.9025446826525781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9225702228248919</v>
+        <v>0.9431615573000365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37.90975769666185</v>
+        <v>38.22175139254387</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9784660498654492</v>
+        <v>0.8962455085660536</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7454365871108146</v>
+        <v>0.8374455939314867</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>35.59055110123575</v>
+        <v>35.71071885358344</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6952748253680859</v>
+        <v>0.7123423364105178</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5566607909652415</v>
+        <v>0.5884230672240289</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>34.79529013789507</v>
+        <v>34.67442016402958</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1569848557751818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42.70855495921882</v>
+        <v>42.70855495921883</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2048039150503164</v>
@@ -779,28 +779,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr"/>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>23.83520259571824</v>
+        <v>22.1970941796925</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6689019160185458</v>
+        <v>-0.6689410323667074</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8609802504507059</v>
+        <v>-0.8455251555465247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>19.2639008707776</v>
+        <v>19.41867898887499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5302407942138172</v>
+        <v>-0.5308959431074165</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7136376936123413</v>
+        <v>-0.6635308195762898</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>25.06033142738718</v>
+        <v>25.82962253833927</v>
       </c>
     </row>
     <row r="9">
@@ -810,28 +812,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="n">
+        <v>7.921139477033107</v>
+      </c>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>258.5571998759972</v>
+        <v>247.0188590023675</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.327255446923141</v>
+        <v>2.668516433483503</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.378553944996899</v>
+        <v>2.706845660786669</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>131.024773902496</v>
+        <v>108.7256362199311</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.411501390874554</v>
+        <v>2.054696142069017</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.775475974886469</v>
+        <v>2.005934908141355</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>102.7892447215926</v>
+        <v>103.3155989203038</v>
       </c>
     </row>
     <row r="10">
@@ -870,7 +874,7 @@
         <v>0.2548839708637157</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.136926831872492</v>
+        <v>8.136926831872493</v>
       </c>
     </row>
     <row r="11">
@@ -881,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.026463261176536</v>
+        <v>-1.102138360327034</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2220101606958062</v>
+        <v>-0.3687941857055486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.651068290292904</v>
+        <v>6.530367094409971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5927321027951581</v>
+        <v>-0.6173260218378533</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8231608877472189</v>
+        <v>-0.7234778531446886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.09130118898793</v>
+        <v>5.064782781755304</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5407903226581273</v>
+        <v>-0.556306242139334</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3547396718317875</v>
+        <v>-0.3572312848625157</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.480637846555442</v>
+        <v>6.309874259471274</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2241323818445163</v>
+        <v>0.2642290684595268</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.348649216092646</v>
+        <v>1.393842109428355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.89616741414358</v>
+        <v>12.80142915850904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9738971279034768</v>
+        <v>0.9802328157856968</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5837731487999622</v>
+        <v>0.6487877758583467</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.605390907134296</v>
+        <v>9.428891183717443</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5156637829791247</v>
+        <v>0.4644188002181201</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7873248127975405</v>
+        <v>0.7770546666457347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.21390370662451</v>
+        <v>10.15494900460459</v>
       </c>
     </row>
     <row r="13">
@@ -987,28 +991,28 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.4941029744079357</v>
+        <v>-0.5718654578149966</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5.310407203553787</v>
+        <v>5.326026970346684</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6799151200167564</v>
+        <v>-0.6291661041084795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7912965966270763</v>
+        <v>-0.7370134641002599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3.779964937575918</v>
+        <v>4.12497207445284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6337369910490429</v>
+        <v>-0.6374282816057252</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4263548201482006</v>
+        <v>-0.4290842617144355</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6.77213336716427</v>
+        <v>6.903699416205769</v>
       </c>
     </row>
     <row r="15">
@@ -1020,28 +1024,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11.39024414522944</v>
+        <v>11.41427896902724</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>107.9617995630492</v>
+        <v>104.7722639497362</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.776613039363441</v>
+        <v>4.0191076828333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.441426800174391</v>
+        <v>3.311978840127335</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32.41287490962643</v>
+        <v>32.49787367828229</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.073152070175673</v>
+        <v>1.620904770561203</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.284204548001292</v>
+        <v>2.637735286804781</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35.7345197078983</v>
+        <v>33.51011289730063</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1066,7 @@
         <v>-0.06159727662780681</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12.15621650998693</v>
+        <v>12.15621650998692</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.13634636191583</v>
@@ -1091,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01068264761810882</v>
+        <v>0.1545852114556022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.6552243867587</v>
+        <v>-1.753944333679776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.438426764693927</v>
+        <v>4.685660407867504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.555366625149365</v>
+        <v>-0.306276675117048</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2926726902449169</v>
+        <v>-0.5059703087339843</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.75331417690172</v>
+        <v>4.849021176798558</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5108818974542085</v>
+        <v>0.4851113472071801</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3747263335190359</v>
+        <v>-0.3760412256038607</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.180606380134212</v>
+        <v>6.499204515029762</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.929943477417086</v>
+        <v>6.299176626820054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.897101770726026</v>
+        <v>1.804079757652179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.1464569641183</v>
+        <v>27.1419245422721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.303604414564401</v>
+        <v>5.522734769468796</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.809830267405708</v>
+        <v>4.400555199900806</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.70996218941205</v>
+        <v>14.91299259488184</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.76426124659501</v>
+        <v>4.620448875331824</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.766751425891452</v>
+        <v>2.701265133164619</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.0243578861341</v>
+        <v>18.29248916434251</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1171,7 @@
         <v>-0.0494572444262533</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9.760382343940742</v>
+        <v>9.760382343940735</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.492477855051276</v>
@@ -1185,7 +1189,7 @@
         <v>0.7637005361527555</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7.883736797640978</v>
+        <v>7.883736797640975</v>
       </c>
     </row>
     <row r="20">
@@ -1196,29 +1200,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.337960170377834</v>
+        <v>-0.3372017735053874</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>1.001175770090073</v>
+        <v>1.274764926578089</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.424762246419811</v>
+        <v>-0.3709555207370436</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3235033921974289</v>
+        <v>-0.4014947539157037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.709317221942754</v>
+        <v>1.611396710095095</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09139831755458061</v>
+        <v>0.06165859724767622</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2817531683652483</v>
+        <v>-0.2849605015384117</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2.587425027446312</v>
+        <v>2.864265537164114</v>
       </c>
     </row>
     <row r="21">
@@ -1229,29 +1233,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>10.58326224995279</v>
+        <v>13.74407898205118</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>50.65552579498235</v>
+        <v>76.49200295942371</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>8.50014806281138</v>
+        <v>11.15076157291538</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.725190105742394</v>
+        <v>8.186688419416759</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>26.53891676006057</v>
+        <v>28.857359947996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.433705679431318</v>
+        <v>5.88190679092867</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.045511663405208</v>
+        <v>3.888844928516551</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>21.5636557828094</v>
+        <v>22.19824036716351</v>
       </c>
     </row>
     <row r="22">
@@ -1301,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3256120497961396</v>
+        <v>-0.3431919904608448</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1964895485699541</v>
+        <v>-0.2328853746410082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.91166721556423</v>
+        <v>12.06538945832456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2136736222033428</v>
+        <v>-0.237990817952641</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3284809940377297</v>
+        <v>-0.357257723527258</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.84425315095481</v>
+        <v>13.90001482141809</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1235505443632985</v>
+        <v>-0.1223570574597517</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1208714314888581</v>
+        <v>-0.1224372271017496</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.42141151992908</v>
+        <v>13.56293116774563</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7694832589416213</v>
+        <v>0.8399220631884218</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9562138973786214</v>
+        <v>0.9532185468128259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.10196227849318</v>
+        <v>18.08613637316263</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9971232352344012</v>
+        <v>0.9972424006597221</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8275262641003145</v>
+        <v>0.787945124840233</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.08550405985702</v>
+        <v>17.99674589587491</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.691607627883528</v>
+        <v>0.7057238721338678</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7063569603984222</v>
+        <v>0.7108090371822178</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.10883417427825</v>
+        <v>17.25336179452683</v>
       </c>
     </row>
     <row r="25">
@@ -1406,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4499793989602786</v>
+        <v>-0.4843722962095274</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3090887595215887</v>
+        <v>-0.3245693717528056</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11.86650052288278</v>
+        <v>12.04303245803637</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2389457094882936</v>
+        <v>-0.2781022584603206</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3557896734004187</v>
+        <v>-0.3791826262331101</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12.10049261781925</v>
+        <v>11.9016534191086</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1646236661156898</v>
+        <v>-0.1715308546222098</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1838826602018797</v>
+        <v>-0.1633692893787374</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>14.53934003748781</v>
+        <v>14.88093144918137</v>
       </c>
     </row>
     <row r="27">
@@ -1441,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.070251951287655</v>
+        <v>2.431554820057785</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.898025126729363</v>
+        <v>2.709872787621019</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>54.43282954353232</v>
+        <v>59.79678197880884</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.069673964838724</v>
+        <v>1.951947451527229</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.647594091742066</v>
+        <v>1.660000021220225</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>36.2381799474674</v>
+        <v>39.49675567892721</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.35190107017109</v>
+        <v>1.345907793015125</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.374475512246735</v>
+        <v>1.400401226812303</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34.06388318722978</v>
+        <v>34.64287918249559</v>
       </c>
     </row>
     <row r="28">
